--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf17-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf17-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09983000000000002</v>
+        <v>0.1816793333333333</v>
       </c>
       <c r="H2">
-        <v>0.29949</v>
+        <v>0.545038</v>
       </c>
       <c r="I2">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589303</v>
       </c>
       <c r="J2">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589304</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6105093333333333</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N2">
-        <v>1.831528</v>
+        <v>2.446501</v>
       </c>
       <c r="O2">
-        <v>0.1519928013857481</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P2">
-        <v>0.1519928013857482</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q2">
-        <v>0.06094714674666668</v>
+        <v>0.1481595568931111</v>
       </c>
       <c r="R2">
-        <v>0.5485243207200001</v>
+        <v>1.333436012038</v>
       </c>
       <c r="S2">
-        <v>0.04921015037206557</v>
+        <v>0.06772639936340603</v>
       </c>
       <c r="T2">
-        <v>0.04921015037206557</v>
+        <v>0.06772639936340606</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09983000000000002</v>
+        <v>0.1816793333333333</v>
       </c>
       <c r="H3">
-        <v>0.29949</v>
+        <v>0.545038</v>
       </c>
       <c r="I3">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589303</v>
       </c>
       <c r="J3">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589304</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>9.999403000000001</v>
       </c>
       <c r="O3">
-        <v>0.8298192952305694</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P3">
-        <v>0.8298192952305695</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q3">
-        <v>0.3327468004966668</v>
+        <v>0.6055616235904445</v>
       </c>
       <c r="R3">
-        <v>2.994721204470001</v>
+        <v>5.450054612314001</v>
       </c>
       <c r="S3">
-        <v>0.2686675416706071</v>
+        <v>0.2768131143104542</v>
       </c>
       <c r="T3">
-        <v>0.268667541670607</v>
+        <v>0.2768131143104543</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09983000000000002</v>
+        <v>0.1816793333333333</v>
       </c>
       <c r="H4">
-        <v>0.29949</v>
+        <v>0.545038</v>
       </c>
       <c r="I4">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589303</v>
       </c>
       <c r="J4">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589304</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +676,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07255766666666667</v>
+        <v>0.119632</v>
       </c>
       <c r="N4">
-        <v>0.217673</v>
+        <v>0.358896</v>
       </c>
       <c r="O4">
-        <v>0.01806400396610915</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P4">
-        <v>0.01806400396610915</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q4">
-        <v>0.007243431863333335</v>
+        <v>0.02173466200533333</v>
       </c>
       <c r="R4">
-        <v>0.06519088677000001</v>
+        <v>0.195611958048</v>
       </c>
       <c r="S4">
-        <v>0.005848516136219937</v>
+        <v>0.009935305085070054</v>
       </c>
       <c r="T4">
-        <v>0.005848516136219937</v>
+        <v>0.009935305085070057</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +720,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.09983000000000002</v>
+        <v>0.07524966666666667</v>
       </c>
       <c r="H5">
-        <v>0.29949</v>
+        <v>0.225749</v>
       </c>
       <c r="I5">
-        <v>0.3237663226376972</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="J5">
-        <v>0.3237663226376972</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0004976666666666667</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N5">
-        <v>0.001493</v>
+        <v>2.446501</v>
       </c>
       <c r="O5">
-        <v>0.0001238994175731531</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P5">
-        <v>0.0001238994175731531</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q5">
-        <v>4.968206333333334E-05</v>
+        <v>0.0613661282498889</v>
       </c>
       <c r="R5">
-        <v>0.00044713857</v>
+        <v>0.552295154249</v>
       </c>
       <c r="S5">
-        <v>4.011445880461227E-05</v>
+        <v>0.0280515614138639</v>
       </c>
       <c r="T5">
-        <v>4.011445880461226E-05</v>
+        <v>0.0280515614138639</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.07524966666666666</v>
+        <v>0.07524966666666667</v>
       </c>
       <c r="H6">
         <v>0.225749</v>
       </c>
       <c r="I6">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="J6">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6105093333333333</v>
+        <v>3.333134333333334</v>
       </c>
       <c r="N6">
-        <v>1.831528</v>
+        <v>9.999403000000001</v>
       </c>
       <c r="O6">
-        <v>0.1519928013857481</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P6">
-        <v>0.1519928013857482</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q6">
-        <v>0.04594062383022222</v>
+        <v>0.2508172475385556</v>
       </c>
       <c r="R6">
-        <v>0.413465614472</v>
+        <v>2.257355227847</v>
       </c>
       <c r="S6">
-        <v>0.03709353312746144</v>
+        <v>0.1146530769276101</v>
       </c>
       <c r="T6">
-        <v>0.03709353312746144</v>
+        <v>0.1146530769276101</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.07524966666666666</v>
+        <v>0.07524966666666667</v>
       </c>
       <c r="H7">
         <v>0.225749</v>
       </c>
       <c r="I7">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="J7">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +862,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.333134333333334</v>
+        <v>0.119632</v>
       </c>
       <c r="N7">
-        <v>9.999403000000001</v>
+        <v>0.358896</v>
       </c>
       <c r="O7">
-        <v>0.8298192952305694</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P7">
-        <v>0.8298192952305695</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q7">
-        <v>0.2508172475385556</v>
+        <v>0.009002268122666668</v>
       </c>
       <c r="R7">
-        <v>2.257355227847</v>
+        <v>0.081020413104</v>
       </c>
       <c r="S7">
-        <v>0.2025157062492833</v>
+        <v>0.004115098741095996</v>
       </c>
       <c r="T7">
-        <v>0.2025157062492833</v>
+        <v>0.004115098741095997</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,25 +897,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.07524966666666666</v>
+        <v>0.255602</v>
       </c>
       <c r="H8">
-        <v>0.225749</v>
+        <v>0.766806</v>
       </c>
       <c r="I8">
-        <v>0.2440479600959548</v>
+        <v>0.4987054441584996</v>
       </c>
       <c r="J8">
-        <v>0.2440479600959548</v>
+        <v>0.4987054441584997</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +924,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.07255766666666667</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N8">
-        <v>0.217673</v>
+        <v>2.446501</v>
       </c>
       <c r="O8">
-        <v>0.01806400396610915</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P8">
-        <v>0.01806400396610915</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q8">
-        <v>0.005459940230777778</v>
+        <v>0.2084435162006667</v>
       </c>
       <c r="R8">
-        <v>0.049139462077</v>
+        <v>1.875991645806</v>
       </c>
       <c r="S8">
-        <v>0.004408483319094174</v>
+        <v>0.09528328188173288</v>
       </c>
       <c r="T8">
-        <v>0.004408483319094175</v>
+        <v>0.09528328188173291</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,55 +959,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.07524966666666666</v>
+        <v>0.255602</v>
       </c>
       <c r="H9">
-        <v>0.225749</v>
+        <v>0.766806</v>
       </c>
       <c r="I9">
-        <v>0.2440479600959548</v>
+        <v>0.4987054441584996</v>
       </c>
       <c r="J9">
-        <v>0.2440479600959548</v>
+        <v>0.4987054441584997</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0004976666666666667</v>
+        <v>3.333134333333334</v>
       </c>
       <c r="N9">
-        <v>0.001493</v>
+        <v>9.999403000000001</v>
       </c>
       <c r="O9">
-        <v>0.0001238994175731531</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P9">
-        <v>0.0001238994175731531</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q9">
-        <v>3.744925077777778E-05</v>
+        <v>0.8519558018686667</v>
       </c>
       <c r="R9">
-        <v>0.000337043257</v>
+        <v>7.667602216818</v>
       </c>
       <c r="S9">
-        <v>3.023740011580491E-05</v>
+        <v>0.3894443266927116</v>
       </c>
       <c r="T9">
-        <v>3.023740011580491E-05</v>
+        <v>0.3894443266927117</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1021,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.13326</v>
+        <v>0.255602</v>
       </c>
       <c r="H10">
-        <v>0.39978</v>
+        <v>0.766806</v>
       </c>
       <c r="I10">
-        <v>0.4321857172663481</v>
+        <v>0.4987054441584996</v>
       </c>
       <c r="J10">
-        <v>0.4321857172663481</v>
+        <v>0.4987054441584997</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,214 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6105093333333333</v>
+        <v>0.119632</v>
       </c>
       <c r="N10">
-        <v>1.831528</v>
+        <v>0.358896</v>
       </c>
       <c r="O10">
-        <v>0.1519928013857481</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P10">
-        <v>0.1519928013857482</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q10">
-        <v>0.08135647376000001</v>
+        <v>0.030578178464</v>
       </c>
       <c r="R10">
-        <v>0.73220826384</v>
+        <v>0.275203606176</v>
       </c>
       <c r="S10">
-        <v>0.06568911788622114</v>
+        <v>0.01397783558405511</v>
       </c>
       <c r="T10">
-        <v>0.06568911788622116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.13326</v>
-      </c>
-      <c r="H11">
-        <v>0.39978</v>
-      </c>
-      <c r="I11">
-        <v>0.4321857172663481</v>
-      </c>
-      <c r="J11">
-        <v>0.4321857172663481</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>3.333134333333334</v>
-      </c>
-      <c r="N11">
-        <v>9.999403000000001</v>
-      </c>
-      <c r="O11">
-        <v>0.8298192952305694</v>
-      </c>
-      <c r="P11">
-        <v>0.8298192952305695</v>
-      </c>
-      <c r="Q11">
-        <v>0.4441734812600001</v>
-      </c>
-      <c r="R11">
-        <v>3.99756133134</v>
-      </c>
-      <c r="S11">
-        <v>0.3586360473106791</v>
-      </c>
-      <c r="T11">
-        <v>0.3586360473106792</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.13326</v>
-      </c>
-      <c r="H12">
-        <v>0.39978</v>
-      </c>
-      <c r="I12">
-        <v>0.4321857172663481</v>
-      </c>
-      <c r="J12">
-        <v>0.4321857172663481</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.07255766666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.217673</v>
-      </c>
-      <c r="O12">
-        <v>0.01806400396610915</v>
-      </c>
-      <c r="P12">
-        <v>0.01806400396610915</v>
-      </c>
-      <c r="Q12">
-        <v>0.009669034660000003</v>
-      </c>
-      <c r="R12">
-        <v>0.08702131194000001</v>
-      </c>
-      <c r="S12">
-        <v>0.007807004510795039</v>
-      </c>
-      <c r="T12">
-        <v>0.007807004510795041</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.13326</v>
-      </c>
-      <c r="H13">
-        <v>0.39978</v>
-      </c>
-      <c r="I13">
-        <v>0.4321857172663481</v>
-      </c>
-      <c r="J13">
-        <v>0.4321857172663481</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.0004976666666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.001493</v>
-      </c>
-      <c r="O13">
-        <v>0.0001238994175731531</v>
-      </c>
-      <c r="P13">
-        <v>0.0001238994175731531</v>
-      </c>
-      <c r="Q13">
-        <v>6.631906E-05</v>
-      </c>
-      <c r="R13">
-        <v>0.00059687154</v>
-      </c>
-      <c r="S13">
-        <v>5.354755865273596E-05</v>
-      </c>
-      <c r="T13">
-        <v>5.354755865273596E-05</v>
+        <v>0.01397783558405511</v>
       </c>
     </row>
   </sheetData>
